--- a/data/data_1.xlsx
+++ b/data/data_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-DL\src\corpora_excel\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repository\NER_Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5118CC9-AFD2-4663-98C5-A925C7C51B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D763A06-3D3F-4F2C-8BAF-EEEE2DA4BC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,7 +117,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -127,7 +127,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,7 +137,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,7 +147,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -157,7 +157,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -497,7 +497,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -508,7 +508,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -524,7 +524,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -535,7 +535,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -551,7 +551,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -562,7 +562,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -578,7 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -589,7 +589,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -602,45 +602,45 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -648,14 +648,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -717,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,16 +728,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,19 +1015,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="71.25" customWidth="1"/>
-    <col min="3" max="3" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.625" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="88.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -1072,7 +1069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="1" customFormat="1">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -1086,7 +1083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="1" customFormat="1">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="1" customFormat="1">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1113,9 +1110,8 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>15</v>
       </c>
@@ -1129,7 +1125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="1" customFormat="1">
       <c r="A8" s="1">
         <v>18</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="1">
         <v>29</v>
       </c>
@@ -1157,24 +1153,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -1188,14 +1184,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A12" s="1">
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1205,7 +1201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" s="1" customFormat="1">
       <c r="A13" s="1">
         <v>37</v>
       </c>
@@ -1219,7 +1215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="1" customFormat="1">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -1233,7 +1229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>40</v>
       </c>
@@ -1247,7 +1243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="1" customFormat="1">
       <c r="A16" s="1">
         <v>42</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>44</v>
       </c>
@@ -1275,7 +1271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="1" customFormat="1">
       <c r="A18" s="1">
         <v>45</v>
       </c>
@@ -1289,7 +1285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>46</v>
       </c>
@@ -1303,7 +1299,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>47</v>
       </c>
@@ -1317,854 +1313,854 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
+    <row r="21" spans="1:18" s="2" customFormat="1">
+      <c r="A21" s="5">
         <v>50</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-    </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1">
+      <c r="A22" s="5">
         <v>58</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1">
+      <c r="A23" s="5">
         <v>59</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1">
+      <c r="A24" s="5">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-    </row>
-    <row r="25" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1">
+      <c r="A25" s="5">
         <v>61</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-    </row>
-    <row r="26" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1">
+      <c r="A26" s="5">
         <v>62</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-    </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1">
+      <c r="A27" s="5">
         <v>72</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-    </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1">
+      <c r="A28" s="5">
         <v>75</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-    </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" s="3" customFormat="1">
+      <c r="A29" s="6">
         <v>83</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1">
+      <c r="A30" s="5">
         <v>84</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-    </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1">
+      <c r="A31" s="5">
         <v>85</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-    </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1">
+      <c r="A32" s="5">
         <v>86</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-    </row>
-    <row r="33" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:18" s="2" customFormat="1">
+      <c r="A33" s="5">
         <v>91</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-    </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" s="2" customFormat="1">
+      <c r="A34" s="5">
         <v>94</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1">
+      <c r="A35" s="5">
         <v>100</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-    </row>
-    <row r="36" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6">
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" s="2" customFormat="1">
+      <c r="A36" s="5">
         <v>101</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-    </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" s="2" customFormat="1">
+      <c r="A37" s="5">
         <v>103</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" s="2" customFormat="1">
+      <c r="A38" s="5">
         <v>104</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-    </row>
-    <row r="39" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" s="3" customFormat="1">
+      <c r="A39" s="6">
         <v>110</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" s="2" customFormat="1">
+      <c r="A40" s="5">
         <v>118</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" s="3" customFormat="1">
+      <c r="A41" s="6">
         <v>119</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" s="2" customFormat="1">
+      <c r="A42" s="5">
         <v>120</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-    </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" s="2" customFormat="1">
+      <c r="A43" s="5">
         <v>121</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-    </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" s="3" customFormat="1">
+      <c r="A44" s="6">
         <v>127</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="1:18" s="2" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A45" s="5">
         <v>131</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-    </row>
-    <row r="46" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:18" s="2" customFormat="1">
+      <c r="A46" s="5">
         <v>133</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-    </row>
-    <row r="47" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" s="3" customFormat="1">
+      <c r="A47" s="6">
         <v>134</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+    </row>
+    <row r="48" spans="1:18" s="3" customFormat="1">
+      <c r="A48" s="6">
         <v>144</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+    </row>
+    <row r="49" spans="1:18" s="2" customFormat="1">
+      <c r="A49" s="5">
         <v>148</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-    </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" s="2" customFormat="1">
+      <c r="A50" s="5">
         <v>149</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C54" s="14"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="C52" s="11"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="C54" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
